--- a/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
+++ b/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6121D5B1-893C-884B-ABF4-1A7E93D4DA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DD6998-2C86-774C-840E-7C8704A14553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
+    <workbookView minimized="1" xWindow="16960" yWindow="760" windowWidth="51200" windowHeight="18880" activeTab="5" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet6!$A$1:$A$411</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$A$1:$A$411</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="529">
   <si>
     <t>https://ldlink-qa.nci.nih.gov/?tab=home</t>
   </si>
@@ -2024,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5D782F-EEAD-5647-AA38-F4BE1C5EC33D}">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2487,30 +2486,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3273050B-E83B-AB45-832B-B1D2AF058374}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017F0611-0096-294F-B542-5996FC46EAD8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A718" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A753" sqref="A1:A753"/>
     </sheetView>
   </sheetViews>
@@ -2530,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC72ECBA-C062-AB47-AE04-6BE6D2CC2C43}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -2607,13 +2586,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19844647-35E1-5B4C-A550-F0AF59FB75DB}">
   <dimension ref="A1:A411"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4693,7 +4670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84041A0-A1B6-4D4A-A070-70D8D7D5E1C0}">
   <dimension ref="A1:A31"/>
   <sheetViews>

--- a/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
+++ b/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BE7906-2EFC-2D4E-8BF9-DC3543A1E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC9ECBA-B9CD-DC4C-8E19-C012E6D0A540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="51200" windowHeight="28300" activeTab="7" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="19" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4a" sheetId="16" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="11" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet7a" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet7b" sheetId="12" r:id="rId5"/>
-    <sheet name="Sheet8" sheetId="13" r:id="rId6"/>
-    <sheet name="Sheet9" sheetId="14" r:id="rId7"/>
-    <sheet name="Sheet11" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet12" sheetId="15" r:id="rId9"/>
-    <sheet name="Sheet12d" sheetId="3" r:id="rId10"/>
-    <sheet name="Sheet6x" sheetId="7" r:id="rId11"/>
-    <sheet name="Sheet7x" sheetId="8" r:id="rId12"/>
-    <sheet name="Sheet8x" sheetId="9" r:id="rId13"/>
+    <sheet name="Sheet5a" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="21" r:id="rId4"/>
+    <sheet name="Sheet7a" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet7b" sheetId="12" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="13" r:id="rId7"/>
+    <sheet name="Sheet9" sheetId="14" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet10a" sheetId="22" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="15" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="2" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="7" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="18" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="19" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="23" r:id="rId16"/>
+    <sheet name="Sheet16" sheetId="20" r:id="rId17"/>
+    <sheet name="Sheet7x" sheetId="8" r:id="rId18"/>
+    <sheet name="Sheet8x" sheetId="9" r:id="rId19"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet6x!$A$1:$A$411</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet13!$A$1:$A$411</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="3963">
   <si>
     <t>https://ldlink-qa.nci.nih.gov/?tab=home</t>
   </si>
@@ -10830,13 +10837,1123 @@
   </si>
   <si>
     <t>https://cebs-stage.nci.nih.gov/datasets/search/aragonistrl2016</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/fda-pmtl</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/mtp-pmtl-docs</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/about</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/change-log</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/api</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/pediatric-cancer-data-navigation</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0001421/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000139352</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000077080</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117362</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/mtp-pmtl-docs#colums-description</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000204673</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000172493</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000149311</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000130706</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000087586</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0005090/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/mtp-pmtl-docs#mapping-description</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000115170</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000085224</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000142208</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL192</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000196139</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117713</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000138613</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000049618</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL112</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000169083</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000171094</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000097007</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136518</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000175054</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117020</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/api#</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000143322</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000105221</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000070669</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000519</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0005149</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL2105708</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0002517</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009943</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009941</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009942</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0001751</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0007254</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000044</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004784</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005405</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000164144</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000341</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000170027</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009715</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007533</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000087586/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0024622</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0006505</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000765</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004327</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000676</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008170</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0001645</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000130706/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004232</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL122</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL4208229</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007991</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000070669/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000024</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000621</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000500</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003956</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117713/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000502</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000072364</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007994</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000684</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007996</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000138735</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009389</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004343</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000304</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000632</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000544</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004229</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000545</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777/associations/graph</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0009901</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000175054/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000637</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626/associations/graph</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0008978</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0000964</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002028</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000888</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005271</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000142208/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000278</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0006862</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000279</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL1421</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000143322/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000544</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000141510/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000404</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007614</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000540</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004352</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0024647</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000280</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000115170/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000651</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000225830</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000149311/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000537</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000171094/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000171843</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004530</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007924</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL206834</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002029</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000138613/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000731</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000508</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000085224/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136754</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000400</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005531</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0100096</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_1001986</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000129315</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0004234</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002011</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL941</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0008343</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004308</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/HP_0000802</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0001939</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000319</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000616</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/OTAR_0000006</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000391</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009433</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0100806</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0003830</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL2316582</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000024</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007010</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000478</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000565</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007788</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0021637</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/OBI_1110021</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002110</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0001421</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL1737</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000144597</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777/associations/bubbles</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000339</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000185499</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000274</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009527</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000105221/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0005090</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0010638</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0003767</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000464</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL1642</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0016063/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL3545413</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000220</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0004145</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000146648</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626/associations/bubbles</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0008347</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004979</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000049618/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005854</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000099942</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/OTAR_0000017</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002014</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0004798</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0016642</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000118985</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002251</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1001249</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000729</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0018801</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000389</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0006058</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000172493/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000097007/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007328</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007208</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0004822</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000134460/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0001645</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0004979/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008185</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009759</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136518/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0100342</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004248</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000684</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000169083/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0009061</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000130382</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000204410</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_1000028</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136807</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000571</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0003777</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117020/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117362/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0010178</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000266</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0016729</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0009166</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004847</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003872</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004842</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008887</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000167193</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007658</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000341</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009187</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0021637</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0011719</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0001361</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000342</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/explore</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/programs</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/about</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/P01CA210944</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/F32CA250155</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/P50CA244289</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/F32CA261034</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/program/Moonshot</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/F30CA260911</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/F31CA265285</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/P01CA214278</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/K08CA263179</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/home</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/K08CA259610</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/project/K99CA263021</t>
+  </si>
+  <si>
+    <t>https://studycatalog-stage.cancer.gov/#/program/CCDI</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/explore</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/#ccdc</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/#mtp</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/#civic</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/#nccr</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/#mci</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/news</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/about</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/MCI</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/home</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/news#hub_12182023</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/news#ehr_01112024</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/news#ccdc_12132023</t>
+  </si>
+  <si>
+    <t>https://ccdi-stage.cancer.gov/fileCentricCart</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Center/CancerCenters</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/GrantsFunding</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/PoliciesResources/PoliciesResources</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/About</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Center/RP</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Center/SharedResource</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Center/COE</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Center/ET</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/DT/DT</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/PRMSandCPDMGuidance</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/Sitemap</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/DT/DT3</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/DT/DT2</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/eData</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/DT/DT4</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/FOAFAQs</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Center/home</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/DT/DT1</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/DSMPRevCriteria</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/DataGuide</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/ExternalWebsitePolicy</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Center/CCList</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/ICD10</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/GuidelineChangesOutline</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/Keyboard</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/CCSGPeerRev</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/DTFAQs</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Center/ResearchProgram</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/ICDView</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/DSMPPolicy</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/OurTeam</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/FOAChangesOutline</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/PoliciesResources/LogoUsagePolicy</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/CURESupp</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/Contact</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/CCSGFAQs</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/ICD9View</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/RPPR</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/NewsEvents/OCCAnnouncement</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/HIVSupp</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/grantsfunding/ICD9View</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/PoliciesResources/ncicenters-r@mail.nih.gov</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/Home/FAQs</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/NewsEvents/NewsEvents</t>
+  </si>
+  <si>
+    <t>https://cancercenters-stage.cancer.gov/GrantsFunding/ccsgdata@mail.nih.gov</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Application%20version%20endpoint</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Mapset%20endpoints</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Search%20endpoint</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Metadata%20endpoints</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Subset%20endpoints</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/History%20endpoints</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Mapset%20endpoints/getMapsets</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Mapset%20endpoints/getMapsetByCode</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Mapset%20endpoints/getMapsetMappingsByCode</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getRoots</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getDescendants</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getInverseAssociations</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getMaps</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getSubtree</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getSubsetMembers_1</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getAssociationEntries</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getRoles_1</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getAssociations_1</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getParents</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getChildren</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getPathsToRoot</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getSubtreeChildren</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getPathsFromRoot</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getPathsToAncestor</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getInverseRoles</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getHistory</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getConcept</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getConcepts</t>
+  </si>
+  <si>
+    <t>https://api-evsrest-stage.nci.nih.gov/swagger-ui/index.html#/Concept%20endpoints/getDisjointWith</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/index.html</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/about.html</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/documentation.html</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/download.html</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/api.html</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/sample.html</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/sample.html#</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/#y1c1n4</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/sample.html#de_search</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/documentation.html#graph_names</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/sample.html#intro_query</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/sample.html#describe</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/documentation.html#coverage</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/sample.html#subclass</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/sample.html#ask</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/documentation.html#prefixes</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/documentation.html#</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/documentation.html#datasets</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/index.html#y1c1n4</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/documentation.html#data_examples</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/documentation.html#namespaces_cadsr</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/documentation.html#hints</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/sample.html#intro</t>
+  </si>
+  <si>
+    <t>https://shared-stage.semantics.cancer.gov/sample.html#annotations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10858,13 +11975,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -10880,9 +12010,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11212,12 +12346,12 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.83203125" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -11289,66 +12423,2872 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE045C75-D955-764E-A337-6AE487D0093B}">
-  <dimension ref="A1:A678"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C757A5-5B3C-714B-B837-04046ABC840C}">
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A5"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="177.5" customWidth="1"/>
+    <col min="1" max="1" width="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3051</v>
+      <c r="A1" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66354217-932A-7A41-8ACE-CF8728F9C270}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3055</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3052</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3053</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A678" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A678">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{47F2E783-ADA8-3B45-8DD4-71AF149AB470}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{5BD02662-013B-8C46-8BC5-A6511EE94584}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{723C3C8D-11D5-CF41-B0C1-36823E61A4A7}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{932F51AC-54DE-7D45-A5D5-F54A982CD971}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{2E4FE65D-EA4F-0845-9881-D4DFBD171B41}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{10AF5FB9-59D6-334B-9DD6-C4A06DC3B7BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246600A7-1182-E04C-BD4B-717B907F09D4}">
+  <dimension ref="A1:A523"/>
+  <sheetViews>
+    <sheetView topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="A524" sqref="A524"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="170.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19844647-35E1-5B4C-A550-F0AF59FB75DB}">
   <dimension ref="A1:A411"/>
   <sheetViews>
-    <sheetView topLeftCell="A393" workbookViewId="0"/>
+    <sheetView topLeftCell="A384" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13428,7 +17368,1412 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D6DB76-5D32-FF40-859D-2FB972CCAFCF}">
+  <dimension ref="A1:A235"/>
+  <sheetViews>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="93" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF583B03-4C12-724C-994A-307712B8546A}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="90.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" location="/project/F32CA261034" xr:uid="{4C035C63-06BF-7C48-8BA4-4A6BE3CDA16C}"/>
+    <hyperlink ref="A4" r:id="rId2" location="/project/P50CA244289" xr:uid="{786CE667-6C90-5D47-A9D3-1861AACCC25E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EF7F73-7379-F24E-8668-70CB5DB68802}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D561E390-7342-434E-AA7E-3318428B3071}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="109.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84041A0-A1B6-4D4A-A070-70D8D7D5E1C0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
@@ -13601,7 +18946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37D49F7-7DAD-A642-8B3F-0D564D8BF0BF}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -16759,6 +22104,149 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B74ACA-3B90-CB4F-B265-471D01445BD9}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="149.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEFB734-FA59-914F-9962-443F31D5C1DA}">
   <dimension ref="A1:A11"/>
@@ -16845,6 +22333,265 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751C0876-99E8-2C4E-8BF7-193960D61ED5}">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="99.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{FC3EEDB0-3EC9-3448-933D-7C26026A5BCE}"/>
+    <hyperlink ref="A28" r:id="rId2" xr:uid="{84CECFC3-4A64-0D4A-B1FD-3ED89130A90D}"/>
+    <hyperlink ref="A38" r:id="rId3" xr:uid="{EDB07413-368D-0544-B988-3E7774EFF587}"/>
+    <hyperlink ref="A11" r:id="rId4" xr:uid="{7AA762E3-7FBE-4E4A-B16B-5360DD352526}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5D782F-EEAD-5647-AA38-F4BE1C5EC33D}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -16908,7 +22655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F683BC8F-8087-6642-A365-006D73914E7B}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -16970,13 +22717,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D69D2-D659-6745-98C0-586D3A739230}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16984,7 +22729,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -17064,16 +22809,19 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{5535FF39-D2A3-6D4B-978F-557D24ED601C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6C81E5-2E7C-554E-B8B8-62046373D69A}">
   <dimension ref="A1:A1973"/>
   <sheetViews>
     <sheetView topLeftCell="A1923" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="A1956" sqref="A1956"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26857,7 +32605,7 @@
       </c>
     </row>
     <row r="1956" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1956" t="s">
+      <c r="A1956" s="1" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -26947,2692 +32695,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246600A7-1182-E04C-BD4B-717B907F09D4}">
-  <dimension ref="A1:A523"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="A524" sqref="A524"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="170.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>3168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>3169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>3171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>3177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>3181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>3183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>3185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>3191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>3193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>3194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>3195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>3201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>3213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>3215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>3219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>3221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>3224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>3238</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>3249</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>3251</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>3252</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>3253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>3254</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>3255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>3256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>3257</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>3258</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>3259</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>3261</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>3262</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>3263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>3266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>3267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>3268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>3271</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>3272</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>3273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>3274</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>3275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>3276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>3277</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>3278</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>3282</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>3283</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>3284</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>3285</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>3286</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>3287</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>3288</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>3290</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>3294</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>3296</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>3298</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>3301</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>3303</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>3304</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>3305</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>3307</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>3308</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>3309</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>3313</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>3314</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>3316</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>3317</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>3318</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>3321</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>3324</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>3326</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>3328</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>3330</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>3332</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>3334</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>3338</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>3339</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>3340</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>3341</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>3342</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>3343</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>3346</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>3347</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>3348</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>3355</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>3358</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>3359</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>3361</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>3362</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>3363</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>3364</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>3365</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>3366</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>3367</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>3368</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>3369</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>3370</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>3371</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>3373</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>3377</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>3111</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>3378</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>3379</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>3385</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>3387</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>3389</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>3391</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>3393</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>3394</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>3395</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>3397</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>3398</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>3399</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>3407</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>3408</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>3409</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>3411</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>3413</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>3415</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>3416</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>3417</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>3421</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>3422</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>3425</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>3427</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>3428</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>3429</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>3434</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>3436</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>3439</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>3443</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>3445</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>3131</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>3453</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>3077</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>3459</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>3462</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>3463</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>3466</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>3101</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>3469</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>3472</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>3474</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>3475</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>3477</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>3478</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>3481</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>3482</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>3483</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>3484</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>3124</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>3486</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>3487</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>3488</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>3489</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>3490</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>3492</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>3493</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>3496</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>3497</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>3091</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>3498</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>3501</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
-        <v>3094</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
-        <v>3503</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>3504</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>3505</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>3507</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>3511</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>3513</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>3514</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>3515</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>3516</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>3519</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>3521</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>3522</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
-        <v>3523</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>3524</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>3526</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>3527</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
-        <v>3529</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
-        <v>3530</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
-        <v>3531</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>3136</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
-        <v>3537</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>3538</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
-        <v>3539</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
-        <v>3540</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
-        <v>3541</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
-        <v>3542</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
-        <v>3544</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
-        <v>3545</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
-        <v>3546</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
-        <v>3547</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
-        <v>3548</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
-        <v>3549</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
-        <v>3551</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
-        <v>3552</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" t="s">
-        <v>3553</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
-        <v>3554</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
-        <v>3555</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
-        <v>3557</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
-        <v>3558</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
-        <v>3561</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
-        <v>3562</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
-        <v>3563</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
-        <v>3564</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
-        <v>3566</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
-        <v>3568</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
-        <v>3569</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
-        <v>3573</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" t="s">
-        <v>3574</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
-        <v>3577</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>3578</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
-        <v>3579</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
-        <v>3581</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
-        <v>3582</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" t="s">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" t="s">
-        <v>3585</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" t="s">
-        <v>3586</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
-        <v>3588</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
-        <v>3589</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" t="s">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" t="s">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" t="s">
-        <v>3592</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
-        <v>3137</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1956" r:id="rId1" xr:uid="{45455E7B-4E92-7642-B65A-BD1D90D1A58A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66354217-932A-7A41-8ACE-CF8728F9C270}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE045C75-D955-764E-A337-6AE487D0093B}">
+  <dimension ref="A1:A667"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.5" customWidth="1"/>
+    <col min="1" max="1" width="177.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3055</v>
+      <c r="A1" s="1" t="s">
+        <v>3907</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3053</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A667">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="/Application%20version%20endpoint" xr:uid="{AD07A8A0-34C0-874F-9F5D-FDAC82C5FDD9}"/>
+    <hyperlink ref="A1" r:id="rId2" location="/" xr:uid="{33C676C6-17FB-0A47-B7D0-62125FF258A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
+++ b/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC9ECBA-B9CD-DC4C-8E19-C012E6D0A540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7528AEE-C273-244C-9D56-C9ADF052CC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="19" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="13" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4a" sheetId="16" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Sheet7x" sheetId="8" r:id="rId18"/>
     <sheet name="Sheet8x" sheetId="9" r:id="rId19"/>
     <sheet name="Sheet17" sheetId="17" r:id="rId20"/>
+    <sheet name="Sheet18" sheetId="24" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet13!$A$1:$A$411</definedName>
@@ -10839,711 +10840,6 @@
     <t>https://cebs-stage.nci.nih.gov/datasets/search/aragonistrl2016</t>
   </si>
   <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/fda-pmtl</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/mtp-pmtl-docs</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/about</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/change-log</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/api</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/pediatric-cancer-data-navigation</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0001421/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000139352</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000077080</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117362</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/mtp-pmtl-docs#colums-description</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000204673</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000172493</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000149311</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000130706</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000087586</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0005090/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/mtp-pmtl-docs#mapping-description</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000115170</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000085224</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000142208</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL192</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000196139</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117713</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000138613</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000049618</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL112</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000169083</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000171094</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000097007</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136518</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000175054</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117020</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/api#</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000143322</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000105221</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000070669</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000519</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0005149</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL2105708</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0002517</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009943</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009941</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009942</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0001751</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0007254</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000044</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004784</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005405</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000164144</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000341</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000170027</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009715</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007533</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000087586/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0024622</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0006505</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000765</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004327</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000676</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008170</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0001645</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000130706/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004232</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL122</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL4208229</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007991</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000070669/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000024</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000621</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000500</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003956</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117713/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000502</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000072364</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007994</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000684</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007996</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000138735</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009389</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004343</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000304</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000632</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000544</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004229</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000545</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777/associations/graph</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0009901</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000175054/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000637</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626/associations/graph</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0008978</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0000964</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002028</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000888</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005271</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000142208/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000278</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0006862</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000279</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL1421</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000143322/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000544</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000141510/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000404</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007614</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000540</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004352</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0024647</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000280</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000115170/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000651</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000225830</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000149311/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000537</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000171094/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000171843</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004530</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007924</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL206834</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002029</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000138613/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000731</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000508</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000085224/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136754</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000400</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005531</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0100096</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_1001986</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000129315</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0004234</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002011</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL941</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0008343</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004308</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/HP_0000802</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0001939</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000319</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000616</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/OTAR_0000006</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000391</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009433</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0100806</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0003830</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL2316582</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000024</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007010</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000478</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000565</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007788</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0021637</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/OBI_1110021</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002110</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0001421</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL1737</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000144597</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777/associations/bubbles</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000339</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000185499</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000274</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009527</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000105221/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0005090</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0010638</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0003767</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000464</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL1642</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0016063/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL3545413</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000220</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0004145</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000146648</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626/associations/bubbles</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0008347</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004979</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000049618/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005854</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000099942</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/OTAR_0000017</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002014</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0004798</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0016642</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000118985</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002251</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1001249</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000729</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0018801</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000389</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0006058</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000172493/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000097007/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007328</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007208</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0004822</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000134460/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0001645</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0004979/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008185</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009759</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136518/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0100342</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004248</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000684</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000169083/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0009061</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000130382</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000204410</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_1000028</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136807</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000571</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0003777</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117020/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117362/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0010178</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000266</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0016729</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0009166</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004847</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003872</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004842</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008887</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000167193</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007658</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000341</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009187</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0021637</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0011719</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0001361</t>
-  </si>
-  <si>
-    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000342</t>
-  </si>
-  <si>
     <t>https://studycatalog-stage.cancer.gov/#/</t>
   </si>
   <si>
@@ -11947,6 +11243,711 @@
   </si>
   <si>
     <t>https://shared-stage.semantics.cancer.gov/sample.html#annotations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000519</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0005149</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL2105708</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0002517</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009943</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009941</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009942</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0001751</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0007254</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000044</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000085224</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004784</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005405</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000164144</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000341</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000170027</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009715</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007533</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117713</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000087586/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0024622</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0006505</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000765</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004327</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000676</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008170</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0001645</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000130706/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117362</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/mtp-pmtl-docs#colums-description</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004232</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL122</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL4208229</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007991</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000070669/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000024</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000621</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000500</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000142208</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003956</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117713/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000502</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000072364</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007994</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000138613</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000684</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007996</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL112</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000138735</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009389</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000097007</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004343</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000175054</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117020</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000304</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000632</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000544</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004229</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000545</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000145777/associations/graph</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0009901</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000175054/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000637</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000001626/associations/graph</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0008978</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000077080</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0000964</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002028</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000888</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005271</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000142208/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000115170</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000278</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0006862</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000279</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL1421</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000143322/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000544</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000141510/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000404</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007614</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/pediatric-cancer-data-navigation</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000540</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000169083</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004352</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0024647</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000280</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000105221</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000115170/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000651</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/change-log</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000225830</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0001421/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000139352</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000149311/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000537</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000171094/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/api</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000171843</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000172493</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004530</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007924</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL206834</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002029</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000138613/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0005090/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000731</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000508</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000085224/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000136754</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000400</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005531</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0100096</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000049618</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_1001986</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000129315</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0004234</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000136518</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002011</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL941</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0008343</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004308</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000070669</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/HP_0000802</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0001939</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000319</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000145777/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000616</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/OTAR_0000006</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000391</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009433</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0100806</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0003830</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL2316582</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000024</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007010</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000478</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000565</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007788</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0021637</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/OBI_1110021</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002110</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0001421</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL1737</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000144597</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000145777/associations/bubbles</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000339</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000185499</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000274</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009527</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000105221/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0005090</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0010638</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000087586</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0003767</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000464</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL1642</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0016063/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL3545413</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000220</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0004145</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000146648</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000001626/associations/bubbles</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0008347</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004979</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000049618/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/about</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL192</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000196139</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005854</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000099942</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/OTAR_0000017</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002014</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0004798</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0016642</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000118985</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000001626/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000171094</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002251</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1001249</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000729</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0018801</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000389</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0006058</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/fda-pmtl</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000172493/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000097007/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007328</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000204673</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007208</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0004822</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000134460/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0001645</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000145777</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0004979/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008185</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009759</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000136518/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0100342</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/api#</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/mtp-pmtl-docs</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004248</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000684</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000169083/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0009061</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000130382</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000204410</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_1000028</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000136807</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000571</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0003777</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117020/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000149311</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000130706</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117362/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0010178</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/mtp-pmtl-docs#mapping-description</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000266</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0016729</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0009166</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004847</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003872</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004842</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008887</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000167193</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007658</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000341</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000001626</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009187</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0021637</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000143322</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0011719</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0001361</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000342</t>
   </si>
 </sst>
 </file>
@@ -12437,157 +12438,157 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3918</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3909</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3910</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3919</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3920</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3921</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3922</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3923</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3924</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3925</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3916</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3926</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3912</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3927</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3928</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3907</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3929</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3930</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3911</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3908</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3931</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3932</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3913</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3933</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3915</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3934</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3917</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>3935</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3936</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3937</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3914</v>
+        <v>3679</v>
       </c>
     </row>
   </sheetData>
@@ -12655,7 +12656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246600A7-1182-E04C-BD4B-717B907F09D4}">
   <dimension ref="A1:A523"/>
   <sheetViews>
-    <sheetView topLeftCell="A515" workbookViewId="0">
+    <sheetView topLeftCell="A323" workbookViewId="0">
       <selection activeCell="A524" sqref="A524"/>
     </sheetView>
   </sheetViews>
@@ -17372,8 +17373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D6DB76-5D32-FF40-859D-2FB972CCAFCF}">
   <dimension ref="A1:A235"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17383,1180 +17384,1183 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3633</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3634</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3635</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3636</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3593</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3637</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3638</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3639</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3640</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3641</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3642</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3614</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3643</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3644</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3645</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3646</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3647</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3648</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3649</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3618</v>
+      <c r="A20" s="1" t="s">
+        <v>3747</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3650</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3651</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3652</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3653</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3654</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3655</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3656</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>3657</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3658</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3604</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3605</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3659</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3660</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>3661</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>3662</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>3663</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>3664</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>3665</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>3666</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>3615</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3667</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>3668</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>3669</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3670</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3671</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>3620</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>3672</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>3673</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>3622</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>3674</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>3675</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>3625</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>3676</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>3627</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>3628</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>3677</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>3678</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>3679</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>3680</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>3681</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3682</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>3683</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>3684</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>3685</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>3686</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>3687</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>3603</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>3688</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>3689</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>3690</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>3691</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>3692</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>3613</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>3693</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>3694</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>3695</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>3696</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>3697</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>3698</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>3699</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>3700</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>3701</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>3599</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>3702</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>3623</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>3703</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>3704</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>3705</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>3631</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>3706</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>3707</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>3597</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>3708</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>3600</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>3602</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>3709</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>3710</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>3711</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>3598</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>3712</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>3607</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>3713</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>3714</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>3715</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>3716</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>3717</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>3611</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>3718</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>3719</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>3720</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>3721</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>3722</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>3723</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>3724</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>3621</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>3725</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>3726</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>3727</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>3626</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>3728</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>3729</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>3730</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>3731</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>3632</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>3732</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>3733</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>3734</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>3601</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>3735</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>3736</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>3737</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>3738</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>3739</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>3740</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>3741</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>3742</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>3743</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>3744</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>3745</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>3746</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>3747</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>3748</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>3749</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>3750</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>3751</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>3752</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>3753</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>3754</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>3755</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>3756</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>3757</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>3758</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>3759</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>3760</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>3610</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>3761</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>3762</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>3763</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>3764</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>3765</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>3766</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>3767</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>3768</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>3769</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>3770</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>3771</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>3772</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>3596</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>3616</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>3617</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>3773</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>3774</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>3775</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>3776</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>3777</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>3778</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>3779</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>3619</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>3624</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>3780</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>3781</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>3782</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>3783</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>3784</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>3785</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>3594</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>3786</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>3787</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>3788</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>3606</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>3789</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>3790</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>3791</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>3792</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>3793</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>3794</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>3795</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>3796</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>3797</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>3798</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>3629</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>3595</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>3799</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>3800</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>3801</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>3802</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>3803</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>3804</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>3805</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>3806</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>3807</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>3808</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>3809</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>3608</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>3609</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>3810</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>3811</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>3612</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>3812</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>3813</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>3814</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>3815</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>3816</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>3817</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>3818</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>3819</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>3820</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>3821</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>3822</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>3823</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>3824</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>3630</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>3825</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>3826</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>3827</v>
+        <v>3962</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{9D7036EF-424A-2747-95B0-F347E801FCDD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18576,87 +18580,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3832</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3833</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3830</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3834</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3835</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3836</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3837</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3838</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3839</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3840</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3828</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3841</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3842</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3829</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3843</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3844</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3831</v>
+        <v>3596</v>
       </c>
     </row>
   </sheetData>
@@ -18695,77 +18699,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3853</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3847</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3848</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3849</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3850</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3854</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3855</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3852</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3846</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3845</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3856</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3857</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3851</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3858</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3859</v>
+        <v>3624</v>
       </c>
     </row>
   </sheetData>
@@ -22108,7 +22112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B74ACA-3B90-CB4F-B265-471D01445BD9}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -22119,130 +22123,145 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3941</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3945</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3944</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3946</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3947</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3948</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3949</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3950</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3951</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3939</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3952</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3953</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3942</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3954</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3943</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3955</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3956</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3940</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3957</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3938</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3958</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3959</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3960</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3961</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3962</v>
+        <v>3727</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DBAEF-E92E-2947-8CE6-027C417F7DC9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22347,237 +22366,237 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3867</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>3902</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3903</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3872</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3873</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3874</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3875</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3862</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3876</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>3904</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>3877</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3878</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3905</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3860</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3879</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3880</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3881</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3882</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3883</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3866</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3884</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3885</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3864</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3886</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3868</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3887</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3888</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>3889</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>3890</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3891</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3892</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3893</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3894</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>3869</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>3863</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>3895</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>3896</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>3871</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>3906</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>3897</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3861</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>3898</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>3899</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3865</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3900</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>3901</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>3870</v>
+        <v>3635</v>
       </c>
     </row>
   </sheetData>
@@ -32715,12 +32734,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3907</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3908</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
+++ b/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7528AEE-C273-244C-9D56-C9ADF052CC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB440F81-3BC4-7F4A-8633-F5C3102BB50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="13" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="13" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4a" sheetId="16" r:id="rId1"/>
@@ -11245,709 +11245,709 @@
     <t>https://shared-stage.semantics.cancer.gov/sample.html#annotations</t>
   </si>
   <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000519</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0005149</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL2105708</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0002517</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009943</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009941</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009942</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0001751</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0007254</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000044</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000085224</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004784</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005405</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000164144</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000341</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000170027</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009715</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007533</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117713</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000087586/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0024622</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0006505</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000765</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004327</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000676</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008170</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0001645</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000130706/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117362</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/mtp-pmtl-docs#colums-description</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004232</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL122</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL4208229</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007991</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000070669/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000024</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000621</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000500</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000142208</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003956</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117713/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000502</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000072364</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007994</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000138613</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000684</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007996</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL112</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000138735</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009389</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000097007</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004343</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000175054</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117020</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000304</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000632</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000544</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004229</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000545</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000145777/associations/graph</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0009901</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000175054/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000637</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000001626/associations/graph</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0008978</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000077080</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0000964</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002028</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000888</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005271</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000142208/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000115170</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000278</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0006862</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000279</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL1421</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000143322/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000544</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000141510/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000404</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007614</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/pediatric-cancer-data-navigation</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000540</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000169083</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004352</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0024647</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000280</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000105221</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000115170/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000651</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/change-log</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000225830</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0001421/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000139352</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000149311/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000537</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000171094/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/api</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000171843</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000172493</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004530</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007924</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL206834</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002029</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000138613/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0005090/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000731</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000508</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000085224/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000136754</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000400</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005531</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0100096</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000049618</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_1001986</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000129315</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0004234</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000136518</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002011</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL941</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0008343</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004308</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000070669</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/HP_0000802</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0001939</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000319</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000145777/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000616</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/OTAR_0000006</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000391</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009433</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0100806</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0003830</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL2316582</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000024</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007010</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000478</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000565</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007788</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0021637</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/OBI_1110021</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002110</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0001421</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL1737</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000144597</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000145777/associations/bubbles</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000339</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000185499</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000274</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009527</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000105221/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0005090</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0010638</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000087586</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0003767</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000464</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL1642</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0016063/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL3545413</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000220</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0004145</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000146648</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000001626/associations/bubbles</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0008347</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004979</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000049618/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/about</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/drug/CHEMBL192</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000196139</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005854</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000099942</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/OTAR_0000017</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002014</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0004798</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0016642</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000118985</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000001626/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000171094</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002251</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1001249</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000729</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0018801</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000389</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0006058</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/fda-pmtl</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000172493/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000097007/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007328</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000204673</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007208</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0004822</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000134460/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0001645</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000145777</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0004979/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008185</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009759</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000136518/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0100342</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/api#</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/mtp-pmtl-docs</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004248</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000684</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000169083/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0009061</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000130382</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000204410</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_1000028</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000136807</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000571</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0003777</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117020/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000149311</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000130706</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000117362/associations</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0010178</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/mtp-pmtl-docs#mapping-description</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0000266</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0016729</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0009166</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004847</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003872</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004842</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008887</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000167193</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007658</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000341</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000001626</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009187</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0021637</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/target/ENSG00000143322</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/MONDO_0011719</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/disease/EFO_0001361</t>
-  </si>
-  <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000342</t>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000519</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0005149</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL2105708</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0002517</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009943</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009941</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009942</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0001751</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0007254</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000044</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000085224</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004784</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005405</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000164144</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000341</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000170027</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009715</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007533</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117713</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000087586/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0024622</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0006505</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000765</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004327</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000676</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008170</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0001645</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000130706/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117362</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/mtp-pmtl-docs#colums-description</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004232</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL122</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL4208229</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007991</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000070669/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000024</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000621</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000500</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000142208</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003956</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117713/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000502</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000072364</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007994</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000138613</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000684</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007996</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL112</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000138735</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009389</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000097007</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004343</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000175054</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117020</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000304</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000632</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000544</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004229</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000545</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777/associations/graph</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0009901</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000175054/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000637</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626/associations/graph</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0008978</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000077080</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0000964</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002028</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_1000888</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0005271</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000142208/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000115170</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000278</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0006862</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000279</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL1421</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000143322/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000544</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000141510/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000404</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007614</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/pediatric-cancer-data-navigation</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000540</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000169083</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004352</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0024647</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000280</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000105221</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000115170/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000651</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/change-log</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000225830</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0001421/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000139352</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000149311/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000537</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000171094/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/api</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000171843</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000172493</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004530</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007924</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL206834</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002029</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000138613/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0005090/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000731</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000508</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000085224/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136754</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000400</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005531</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0100096</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000049618</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_1001986</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000129315</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0004234</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136518</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1002011</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL941</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0008343</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004308</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000070669</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/HP_0000802</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0001939</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000319</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000616</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/OTAR_0000006</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000391</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009433</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/HP_0100806</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0003830</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL2316582</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1000024</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007010</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000478</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000565</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007788</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0021637</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/OBI_1110021</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002110</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0001421</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL1737</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000144597</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777/associations/bubbles</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000339</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000185499</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000274</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009527</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000105221/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0005090</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0010638</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000087586</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0003767</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000464</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL1642</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0016063/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL3545413</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000220</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0004145</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000146648</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626/associations/bubbles</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0008347</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/MONDO_0004979</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000049618/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/about</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/drug/CHEMBL192</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000196139</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0005854</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000099942</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/OTAR_0000017</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002014</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0004798</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0016642</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000118985</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000171094</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/HP_0002251</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_1001249</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0000729</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0018801</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000389</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0006058</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/fda-pmtl</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000172493/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000097007/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007328</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000204673</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0007208</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0004822</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000134460/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0001645</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000145777</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0004979/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008185</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009759</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136518/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0100342</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/api#</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/mtp-pmtl-docs</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0004248</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000684</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000169083/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0009061</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000130382</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000204410</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_1000028</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000136807</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000571</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0003777</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117020/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000149311</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000130706</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000117362/associations</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0010178</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/mtp-pmtl-docs#mapping-description</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0000266</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0016729</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0009166</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004847</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0003872</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0004842</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/MONDO_0008887</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000167193</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0007658</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000341</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000001626</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000145777/EFO_0009187</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0021637</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/target/ENSG00000143322</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/MONDO_0011719</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/disease/EFO_0001361</t>
+  </si>
+  <si>
+    <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000342</t>
   </si>
 </sst>
 </file>
@@ -17374,7 +17374,7 @@
   <dimension ref="A1:A235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17478,7 +17478,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>3747</v>
       </c>
     </row>
@@ -18558,9 +18558,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{9D7036EF-424A-2747-95B0-F347E801FCDD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
+++ b/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/BannerUrlListProd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/CloudAndSystemEngineering/ShutdownBanner/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB440F81-3BC4-7F4A-8633-F5C3102BB50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D4ED63-D2A0-4D42-BB6A-B1FC6831BC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="13" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
+    <workbookView xWindow="10420" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="21" xr2:uid="{7D8A36FA-F3A4-A34E-8D1B-5EE26F4A67C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4a" sheetId="16" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="Sheet12" sheetId="2" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="7" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="18" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="19" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="23" r:id="rId16"/>
-    <sheet name="Sheet16" sheetId="20" r:id="rId17"/>
-    <sheet name="Sheet7x" sheetId="8" r:id="rId18"/>
-    <sheet name="Sheet8x" sheetId="9" r:id="rId19"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId20"/>
-    <sheet name="Sheet18" sheetId="24" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId15"/>
+    <sheet name="Sheet15" sheetId="19" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="23" r:id="rId17"/>
+    <sheet name="Sheet16" sheetId="20" r:id="rId18"/>
+    <sheet name="Sheet7x" sheetId="8" r:id="rId19"/>
+    <sheet name="Sheet8x" sheetId="9" r:id="rId20"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId21"/>
+    <sheet name="99" sheetId="24" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet13!$A$1:$A$411</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="3963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="3967">
   <si>
     <t>https://ldlink-qa.nci.nih.gov/?tab=home</t>
   </si>
@@ -11948,12 +11949,27 @@
   </si>
   <si>
     <t>https://moleculartargets.ccdi.cancer.gov/evidence/ENSG00000001626/EFO_0000342</t>
+  </si>
+  <si>
+    <t>073664048320</t>
+  </si>
+  <si>
+    <t>042017394854</t>
+  </si>
+  <si>
+    <t>058303049682</t>
+  </si>
+  <si>
+    <t>038698530233</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="00000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -12011,13 +12027,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12048,9 +12070,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12088,7 +12110,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -12194,7 +12216,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12336,7 +12358,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17373,7 +17395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D6DB76-5D32-FF40-859D-2FB972CCAFCF}">
   <dimension ref="A1:A235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -18563,6 +18585,18 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22392CC-EA40-F644-BB68-D6110895DD7B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF583B03-4C12-724C-994A-307712B8546A}">
   <dimension ref="A1:A17"/>
   <sheetViews>
@@ -18669,7 +18703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EF7F73-7379-F24E-8668-70CB5DB68802}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18681,7 +18715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D561E390-7342-434E-AA7E-3318428B3071}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -18774,7 +18808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84041A0-A1B6-4D4A-A070-70D8D7D5E1C0}">
   <dimension ref="A1:A31"/>
   <sheetViews>
@@ -18943,50 +18977,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37D49F7-7DAD-A642-8B3F-0D564D8BF0BF}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="75.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{B402772C-471B-FA4B-BFFB-CF7B62A024CC}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{79A8DB05-8929-FA49-9C02-CC29F0B40257}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22106,6 +22096,50 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37D49F7-7DAD-A642-8B3F-0D564D8BF0BF}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{B402772C-471B-FA4B-BFFB-CF7B62A024CC}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{79A8DB05-8929-FA49-9C02-CC29F0B40257}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B74ACA-3B90-CB4F-B265-471D01445BD9}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -22248,17 +22282,380 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DBAEF-E92E-2947-8CE6-027C417F7DC9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>236370463730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>642566643032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>181130565154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>625161195801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>144254675048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>623057548936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>139057765967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>457205170901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>121990522487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>131878922795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>563166496032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>884933854813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>358563719275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>746822301701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>844932575163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>253094258047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>893402228433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>983411449790</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>427244650436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>528787169436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>697201234594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>511690009290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>992226668277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>841491953664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>384177886418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>195596853015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>880817323199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>946983633161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>370836444212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>730335204194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>767705013692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>101183076466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>105498667514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>930290086108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>877296374991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>537226181452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>718499258026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>519084493304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>148687757123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>882237576335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>673752065445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>992382484947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>152091478849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>427258222934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>335181747059</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>784507132627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>675401147663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>608450266146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>753053732068</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>593287730872</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>874704082700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>701614564860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>132744973226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>537857709444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>205739563515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>433738540978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>700142206405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>488847782892</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>357019679477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>598369874133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>717759169002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>113394061914</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>178956513308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>798482338490</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>717910577139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>442186899062</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>315115278000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>695404195050</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
